--- a/data/georgia_census/mcxeta-mtianeti/dusheti/education_graduates.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/dusheti/education_graduates.xlsx
@@ -1864,13 +1864,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCB09939-8C77-47BC-8DAA-98C3F1FDB1A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84931A52-F05D-4086-AB6F-306750C95734}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0930D36-F9E7-41A6-B493-2984C59CEF74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D919C2E-7EF7-4C24-8E40-B931A722F9DE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{519E214C-DD68-4EFF-9554-C296B70C254D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBFD81EA-8015-4170-90EA-2475F1F8EE0D}"/>
 </file>